--- a/public/downloads/top_hotel_export_filtered.xlsx
+++ b/public/downloads/top_hotel_export_filtered.xlsx
@@ -412,7 +412,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +435,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Datum generování: 18. 3. 2025 17:43:22</v>
+        <v>Datum generování: 19. 3. 2025 23:48:08</v>
       </c>
     </row>
     <row r="5">
@@ -1362,9 +1362,65 @@
         <v>0.7858101851851852</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v/>
+      </c>
+      <c r="B71" t="str">
+        <v>18.03.2025 06:40:40</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Sedmík Václav</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.27824074074074073</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v/>
+      </c>
+      <c r="B72" t="str">
+        <v>18.03.2025 06:41:32</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Ouerghi Houssem</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.2788425925925926</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v/>
+      </c>
+      <c r="B73" t="str">
+        <v>18.03.2025 18:42:22</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Jelínek Filip</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.7794212962962963</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v/>
+      </c>
+      <c r="B74" t="str">
+        <v>18.03.2025 18:46:52</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Sedmík Václav</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.7825462962962962</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D70"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D74"/>
   </ignoredErrors>
 </worksheet>
 </file>